--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -1,99 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiYang\MyGit\flask_myblog\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C3E13-C89A-4092-B1F7-E195FE198D35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="7785"/>
+    <workbookView xWindow="5805" yWindow="1710" windowWidth="15345" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="M32" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-通过userid+文章id标识唯一的博客文章</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-通过userid+文章id标识唯一的博客文章</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,56 +70,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>say</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reply_to_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my name is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>avatar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">post.author_id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enable_dis</t>
   </si>
   <si>
-    <t>authorid</t>
-  </si>
-  <si>
     <t>postid</t>
   </si>
   <si>
@@ -197,44 +93,82 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表评论的用户唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复谁？-1的话就是评论而非回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postid来唯一标识一篇博客的留言（不需要authoid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该回复在哪个评论下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +178,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,9 +230,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,21 +524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="M22:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="J25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
     <col min="16" max="16" width="29.5" customWidth="1"/>
+    <col min="18" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M23" t="s">
         <v>1</v>
       </c>
@@ -587,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M24" t="s">
         <v>2</v>
       </c>
@@ -595,180 +563,339 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.4">
       <c r="P26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.4">
       <c r="P27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M33" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M34" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M35" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M36" s="4" t="s">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M38" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M37" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="14.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="1.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="9" width="2.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiYang\MyGit\flask_myblog\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Doc\MyProject\flask_study\flask_myblog\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C3E13-C89A-4092-B1F7-E195FE198D35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1710" windowWidth="15345" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="1710" windowWidth="15345" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,25 +137,53 @@
   </si>
   <si>
     <t>root_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -247,7 +275,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,14 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M22:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="J25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="13" max="13" width="17.625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -539,7 +567,7 @@
     <col min="18" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="13:16">
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="13:16">
       <c r="M23" t="s">
         <v>1</v>
       </c>
@@ -555,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="13:16">
       <c r="M24" t="s">
         <v>2</v>
       </c>
@@ -563,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="13:16">
       <c r="M25" t="s">
         <v>9</v>
       </c>
@@ -571,17 +599,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="13:16">
       <c r="P26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="13:16">
       <c r="P27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="13:16">
       <c r="M31" s="1" t="s">
         <v>8</v>
       </c>
@@ -589,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="13:16" ht="16.5">
       <c r="M32" s="4" t="s">
         <v>11</v>
       </c>
@@ -597,7 +625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="13:14" ht="16.5">
       <c r="M33" s="4" t="s">
         <v>12</v>
       </c>
@@ -605,7 +633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="13:14" ht="16.5">
       <c r="M34" s="4" t="s">
         <v>13</v>
       </c>
@@ -613,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="13:14" ht="16.5">
       <c r="M35" s="4" t="s">
         <v>14</v>
       </c>
@@ -621,7 +649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="13:14" ht="16.5">
       <c r="M36" s="4" t="s">
         <v>10</v>
       </c>
@@ -629,7 +657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="13:14" ht="16.5">
       <c r="M37" s="4" t="s">
         <v>15</v>
       </c>
@@ -637,7 +665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="13:14" ht="16.5">
       <c r="M38" s="5" t="s">
         <v>25</v>
       </c>
@@ -652,14 +680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
@@ -670,7 +698,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -699,7 +727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -713,7 +741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -727,7 +755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -741,7 +769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -755,7 +783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -772,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -789,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -806,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -823,7 +851,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
       <c r="B10" s="8">
         <v>4</v>
       </c>
@@ -837,7 +868,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
       <c r="B11" s="9">
         <v>1</v>
       </c>
@@ -851,7 +885,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
       <c r="B12" s="9">
         <v>4</v>
       </c>
@@ -865,7 +902,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -879,7 +919,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
       <c r="B14" s="9">
         <v>4</v>
       </c>
@@ -898,4 +941,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Doc\MyProject\flask_study\flask_myblog\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiYang\MyGit\flask_myblog\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF894-3B62-4611-9A5E-36BFAF72C6A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1710" windowWidth="15345" windowHeight="12225"/>
+    <workbookView xWindow="5955" yWindow="2655" windowWidth="13500" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>root_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,25 +162,33 @@
   </si>
   <si>
     <t>入学年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识一个评论或者回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,9 +278,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M22:P38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="M22:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="13" max="13" width="17.625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -567,7 +575,7 @@
     <col min="18" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="13:16">
+    <row r="22" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="13:16">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M23" t="s">
         <v>1</v>
       </c>
@@ -583,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="13:16">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M24" t="s">
         <v>2</v>
       </c>
@@ -591,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="13:16">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M25" t="s">
         <v>9</v>
       </c>
@@ -599,17 +607,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="13:16">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.4">
       <c r="P26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="13:16">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.4">
       <c r="P27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="13:16">
+    <row r="31" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M31" s="1" t="s">
         <v>8</v>
       </c>
@@ -617,59 +625,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="13:16" ht="16.5">
-      <c r="M32" s="4" t="s">
+    <row r="32" spans="13:16" x14ac:dyDescent="0.4">
+      <c r="M32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N33" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="13:14" ht="16.5">
-      <c r="M33" s="4" t="s">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="13:14" ht="16.5">
-      <c r="M34" s="4" t="s">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N35" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="13:14" ht="16.5">
-      <c r="M35" s="4" t="s">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="13:14" ht="16.5">
-      <c r="M36" s="4" t="s">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N37" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="13:14" ht="16.5">
-      <c r="M37" s="4" t="s">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N38" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="13:14" ht="16.5">
-      <c r="M38" s="5" t="s">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N39" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -680,25 +696,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="1.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="0.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="9" width="2.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -718,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>22</v>
@@ -727,7 +744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -741,7 +758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -755,7 +772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -769,7 +786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -783,7 +800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -800,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -817,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -834,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -851,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -868,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -885,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -902,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -919,7 +936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -944,36 +961,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiYang\MyGit\flask_myblog\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Doc\MyProject\flask_study\flask_myblog\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF894-3B62-4611-9A5E-36BFAF72C6A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2655" windowWidth="13500" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="2655" windowWidth="13500" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,25 +169,33 @@
   </si>
   <si>
     <t>唯一标识一个评论或者回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">replyid </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,12 +285,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M22:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="K16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="13" max="13" width="17.625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -575,7 +582,7 @@
     <col min="18" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="13:16">
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="13:16">
       <c r="M23" t="s">
         <v>1</v>
       </c>
@@ -591,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="13:16">
       <c r="M24" t="s">
         <v>2</v>
       </c>
@@ -599,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="13:16">
       <c r="M25" t="s">
         <v>9</v>
       </c>
@@ -607,17 +614,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="13:16">
       <c r="P26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="13:16">
       <c r="P27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="13:16">
       <c r="M31" s="1" t="s">
         <v>8</v>
       </c>
@@ -625,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="13:16" ht="16.5">
       <c r="M32" s="10" t="s">
         <v>34</v>
       </c>
@@ -633,7 +640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="13:14" ht="16.5">
       <c r="M33" s="4" t="s">
         <v>11</v>
       </c>
@@ -641,7 +648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="13:14" ht="16.5">
       <c r="M34" s="4" t="s">
         <v>12</v>
       </c>
@@ -649,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="13:14" ht="16.5">
       <c r="M35" s="4" t="s">
         <v>13</v>
       </c>
@@ -657,7 +664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="13:14" ht="16.5">
       <c r="M36" s="4" t="s">
         <v>14</v>
       </c>
@@ -665,7 +672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="13:14" ht="16.5">
       <c r="M37" s="4" t="s">
         <v>10</v>
       </c>
@@ -673,7 +680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="13:14" ht="16.5">
       <c r="M38" s="4" t="s">
         <v>15</v>
       </c>
@@ -681,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="13:14" ht="16.5">
       <c r="M39" s="5" t="s">
         <v>25</v>
       </c>
@@ -696,260 +703,303 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="0.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="0.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="H2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
-        <v>-1</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="H3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
-        <v>-1</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="H4" s="2">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>4</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>4</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <v>2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>4</v>
       </c>
     </row>
@@ -961,16 +1011,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>27</v>
       </c>
